--- a/Test_Suite/kiosk_admin.xlsx
+++ b/Test_Suite/kiosk_admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFBCDCD-DC8A-4719-A549-C66381CC618D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC692A00-7115-4A1E-BB17-8EBAB0995D4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_Suite/kiosk_admin.xlsx
+++ b/Test_Suite/kiosk_admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC692A00-7115-4A1E-BB17-8EBAB0995D4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE97F4FF-C905-4C6E-BB2D-F4CB1A7A95AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="720" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,35 +55,14 @@
     <t>EasyShellTest().clearKioskAdmin()</t>
   </si>
   <si>
-    <r>
-      <t>EasyshellLib.getElement(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'MAIN_WINDOW'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>).Exists()</t>
-    </r>
+    <t>EasyShellTest().check_main_window(True)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +79,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF008080"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -446,19 +418,19 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -504,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -520,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -536,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -544,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
     </row>
